--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Medication_Ingre" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T15:16:58+00:00</t>
+    <t>2024-12-26T13:24:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,31 +78,34 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Medication Ingredient Strength Codes</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Medication Ingredient Strength Codes</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
   </si>
   <si>
     <t>System URI</t>
@@ -401,18 +404,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/ValueSet-medication-ingredient-strength-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
